--- a/PricerAndQutation/OptionPricer_v2_20180205.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180205.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,10 @@
   </si>
   <si>
     <t>al1804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510050.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,6 +1557,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1562,26 +1575,26 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1592,20 +1605,11 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="179" fontId="28" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="179" fontId="28" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,14 +1644,21 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14405</v>
+        <v>14225</v>
         <stp/>
         <stp>al1804</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="1"/>
       </tp>
       <tp>
-        <v>3967</v>
+        <v>3.11</v>
+        <stp/>
+        <stp>510050.sh</stp>
+        <stp>LastPrice</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp>
+        <v>3943</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1656,7 +1667,7 @@
         <tr r="H8" s="7"/>
       </tp>
       <tp>
-        <v>3800</v>
+        <v>3782</v>
         <stp/>
         <stp>RB1810</stp>
         <stp>LastPrice</stp>
@@ -1957,7 +1968,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -3681,75 +3692,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="179"/>
+      <c r="C1" s="175"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="G3" s="183" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="G3" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="L3" s="180" t="s">
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="L3" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="Q3" s="183" t="s">
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="Q3" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="G4" s="175" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="G4" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="L4" s="175" t="s">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="L4" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="Q4" s="175" t="s">
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="Q4" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
-      <c r="G5" s="166" t="s">
+      <c r="C5" s="169"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="G5" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="166"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="158"/>
       <c r="J5" s="159"/>
       <c r="L5" s="156" t="s">
@@ -3758,360 +3769,360 @@
       <c r="M5" s="157"/>
       <c r="N5" s="158"/>
       <c r="O5" s="159"/>
-      <c r="Q5" s="166" t="s">
+      <c r="Q5" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="166"/>
+      <c r="R5" s="169"/>
       <c r="S5" s="158"/>
       <c r="T5" s="159"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167" t="s">
+      <c r="C6" s="169"/>
+      <c r="D6" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="G6" s="166" t="s">
+      <c r="E6" s="171"/>
+      <c r="G6" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
-      <c r="L6" s="166" t="s">
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
+      <c r="L6" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167" t="s">
+      <c r="M6" s="169"/>
+      <c r="N6" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="168"/>
-      <c r="Q6" s="166" t="s">
+      <c r="O6" s="171"/>
+      <c r="Q6" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="166"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="168"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="171"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167" t="s">
+      <c r="C7" s="169"/>
+      <c r="D7" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="G7" s="166" t="s">
+      <c r="E7" s="171"/>
+      <c r="G7" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
-      <c r="L7" s="166" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
+      <c r="L7" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="166"/>
-      <c r="N7" s="167" t="s">
+      <c r="M7" s="169"/>
+      <c r="N7" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="168"/>
-      <c r="Q7" s="166" t="s">
+      <c r="O7" s="171"/>
+      <c r="Q7" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="166"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="168"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="171"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167">
+      <c r="C8" s="169"/>
+      <c r="D8" s="170">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="G8" s="166" t="s">
+      <c r="E8" s="171"/>
+      <c r="G8" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="166"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
-      <c r="L8" s="166" t="s">
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="L8" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167">
+      <c r="M8" s="169"/>
+      <c r="N8" s="170">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="168"/>
-      <c r="Q8" s="166" t="s">
+      <c r="O8" s="171"/>
+      <c r="Q8" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="166"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="168"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="171"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="169"/>
+      <c r="D9" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="G9" s="166" t="s">
+      <c r="E9" s="171"/>
+      <c r="G9" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
-      <c r="L9" s="166" t="s">
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
+      <c r="L9" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167" t="s">
+      <c r="M9" s="169"/>
+      <c r="N9" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="168"/>
-      <c r="Q9" s="166" t="s">
+      <c r="O9" s="171"/>
+      <c r="Q9" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="166"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="168"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="171"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="166"/>
-      <c r="D10" s="167">
+      <c r="C10" s="169"/>
+      <c r="D10" s="170">
         <v>43084</v>
       </c>
-      <c r="E10" s="168"/>
+      <c r="E10" s="171"/>
       <c r="G10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="160"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
-      <c r="L10" s="166" t="s">
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
+      <c r="L10" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="166"/>
-      <c r="N10" s="167">
+      <c r="M10" s="169"/>
+      <c r="N10" s="170">
         <v>43084</v>
       </c>
-      <c r="O10" s="168"/>
+      <c r="O10" s="171"/>
       <c r="Q10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="160"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="168"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="171"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167">
+      <c r="C11" s="169"/>
+      <c r="D11" s="170">
         <v>3935</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="G11" s="166" t="s">
+      <c r="E11" s="171"/>
+      <c r="G11" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="166"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168"/>
-      <c r="L11" s="166" t="s">
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
+      <c r="L11" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="166"/>
-      <c r="N11" s="167">
+      <c r="M11" s="169"/>
+      <c r="N11" s="170">
         <v>3935</v>
       </c>
-      <c r="O11" s="168"/>
-      <c r="Q11" s="166" t="s">
+      <c r="O11" s="171"/>
+      <c r="Q11" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="166"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="168"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="171"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="167">
+      <c r="C12" s="169"/>
+      <c r="D12" s="170">
         <v>3800</v>
       </c>
-      <c r="E12" s="168"/>
-      <c r="G12" s="166" t="s">
+      <c r="E12" s="171"/>
+      <c r="G12" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="166"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="168"/>
-      <c r="L12" s="166" t="s">
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
+      <c r="L12" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="166"/>
-      <c r="N12" s="167">
+      <c r="M12" s="169"/>
+      <c r="N12" s="170">
         <v>3800</v>
       </c>
-      <c r="O12" s="168"/>
-      <c r="Q12" s="166" t="s">
+      <c r="O12" s="171"/>
+      <c r="Q12" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="166"/>
-      <c r="S12" s="167"/>
-      <c r="T12" s="168"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="171"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167">
+      <c r="C13" s="169"/>
+      <c r="D13" s="170">
         <v>61</v>
       </c>
-      <c r="E13" s="168"/>
-      <c r="G13" s="166" t="s">
+      <c r="E13" s="171"/>
+      <c r="G13" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="166"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
-      <c r="L13" s="166" t="s">
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
+      <c r="L13" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="166"/>
-      <c r="N13" s="167">
+      <c r="M13" s="169"/>
+      <c r="N13" s="170">
         <v>3800</v>
       </c>
-      <c r="O13" s="168"/>
-      <c r="Q13" s="166" t="s">
+      <c r="O13" s="171"/>
+      <c r="Q13" s="169" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="166"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="168"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="171"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167" t="s">
+      <c r="C14" s="169"/>
+      <c r="D14" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="G14" s="166" t="s">
+      <c r="E14" s="171"/>
+      <c r="G14" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="166"/>
+      <c r="H14" s="169"/>
       <c r="I14" s="161"/>
       <c r="J14" s="162"/>
-      <c r="L14" s="166" t="s">
+      <c r="L14" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="166"/>
-      <c r="N14" s="167">
+      <c r="M14" s="169"/>
+      <c r="N14" s="170">
         <v>61</v>
       </c>
-      <c r="O14" s="168"/>
-      <c r="Q14" s="166" t="s">
+      <c r="O14" s="171"/>
+      <c r="Q14" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="166"/>
-      <c r="S14" s="167"/>
-      <c r="T14" s="168"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="171"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167">
+      <c r="C15" s="169"/>
+      <c r="D15" s="170">
         <v>5000</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="G15" s="166" t="s">
+      <c r="E15" s="171"/>
+      <c r="G15" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
-      <c r="L15" s="166" t="s">
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
+      <c r="L15" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="166"/>
-      <c r="N15" s="167" t="s">
+      <c r="M15" s="169"/>
+      <c r="N15" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="168"/>
-      <c r="Q15" s="166" t="s">
+      <c r="O15" s="171"/>
+      <c r="Q15" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="166"/>
+      <c r="R15" s="169"/>
       <c r="S15" s="161"/>
       <c r="T15" s="162"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="172" t="s">
+      <c r="C16" s="166"/>
+      <c r="D16" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="G16" s="171" t="s">
+      <c r="E16" s="168"/>
+      <c r="G16" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-      <c r="L16" s="166" t="s">
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
+      <c r="L16" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="166"/>
-      <c r="N16" s="167">
+      <c r="M16" s="169"/>
+      <c r="N16" s="170">
         <v>5000</v>
       </c>
-      <c r="O16" s="168"/>
-      <c r="Q16" s="166" t="s">
+      <c r="O16" s="171"/>
+      <c r="Q16" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="167"/>
-      <c r="T16" s="168"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="171"/>
     </row>
     <row r="17" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="171" t="s">
+      <c r="L17" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="171"/>
-      <c r="N17" s="172" t="s">
+      <c r="M17" s="166"/>
+      <c r="N17" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="173"/>
-      <c r="Q17" s="171" t="s">
+      <c r="O17" s="168"/>
+      <c r="Q17" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="171"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="173"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="168"/>
     </row>
     <row r="18" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
@@ -4130,247 +4141,327 @@
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="G22" s="175" t="s">
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="G22" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
     </row>
     <row r="23" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="174">
+      <c r="C23" s="169"/>
+      <c r="D23" s="178">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
-      </c>
-      <c r="E23" s="176"/>
+        <v>43137</v>
+      </c>
+      <c r="E23" s="179"/>
       <c r="G23" s="156" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="157"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167" t="s">
+      <c r="C24" s="169"/>
+      <c r="D24" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="168"/>
-      <c r="G24" s="166" t="s">
+      <c r="E24" s="171"/>
+      <c r="G24" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167" t="s">
+      <c r="C25" s="169"/>
+      <c r="D25" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="168"/>
-      <c r="G25" s="166" t="s">
+      <c r="E25" s="171"/>
+      <c r="G25" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167">
+      <c r="C26" s="169"/>
+      <c r="D26" s="170">
         <f>D31*D33</f>
         <v>430000</v>
       </c>
-      <c r="E26" s="168"/>
+      <c r="E26" s="171"/>
       <c r="G26" s="160" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="160"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="168"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167" t="s">
+      <c r="C27" s="169"/>
+      <c r="D27" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="168"/>
-      <c r="G27" s="166" t="s">
+      <c r="E27" s="171"/>
+      <c r="G27" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="174">
+      <c r="C28" s="169"/>
+      <c r="D28" s="178">
         <v>43205</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="G28" s="166" t="s">
+      <c r="E28" s="171"/>
+      <c r="G28" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="166"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="168"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167">
+      <c r="C29" s="169"/>
+      <c r="D29" s="170">
         <v>3755</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="G29" s="166" t="s">
+      <c r="E29" s="171"/>
+      <c r="G29" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="166"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167">
+      <c r="C30" s="169"/>
+      <c r="D30" s="170">
         <v>3650</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="G30" s="166" t="s">
+      <c r="E30" s="171"/>
+      <c r="G30" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="166"/>
+      <c r="H30" s="169"/>
       <c r="I30" s="161"/>
       <c r="J30" s="162"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167">
+      <c r="C31" s="169"/>
+      <c r="D31" s="170">
         <v>43</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="G31" s="166" t="s">
+      <c r="E31" s="171"/>
+      <c r="G31" s="169" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="166"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167" t="s">
+      <c r="C32" s="169"/>
+      <c r="D32" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="168"/>
-      <c r="G32" s="166" t="s">
+      <c r="E32" s="171"/>
+      <c r="G32" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="166"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="168"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167">
+      <c r="C33" s="169"/>
+      <c r="D33" s="170">
         <v>10000</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="G33" s="166" t="s">
+      <c r="E33" s="171"/>
+      <c r="G33" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="166"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="168"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="2:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="172" t="s">
+      <c r="C34" s="166"/>
+      <c r="D34" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="G34" s="166" t="s">
+      <c r="E34" s="168"/>
+      <c r="G34" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="2:10" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="171" t="s">
+      <c r="G35" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="171"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="168"/>
     </row>
     <row r="36" spans="2:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4395,109 +4486,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4510,8 +4521,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4671,11 +4682,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E12" ca="1" si="0">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4695,7 +4706,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-232.63030914491947</v>
+        <v>-215.99747648445737</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -4704,11 +4715,11 @@
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>232.63030914491947</v>
+        <v>215.99747648445737</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3967</v>
+        <v>3943</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4722,15 +4733,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>5.8641368576990031E-2</v>
+        <v>5.4779983891569205E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.70529767253901809</v>
+        <v>-0.68059928319144092</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.9081896031384531</v>
+        <v>-4.0263669471698904</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4746,11 +4757,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4820,15 +4831,15 @@
       </c>
       <c r="E10" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" ref="F10" ca="1" si="7">E10+H10</f>
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="G10" s="20">
         <f>P10</f>
-        <v>3800</v>
+        <v>3782</v>
       </c>
       <c r="H10" s="19">
         <v>120</v>
@@ -4845,22 +4856,22 @@
       </c>
       <c r="L10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-224.31253663523876</v>
+        <v>-223.25000356696637</v>
       </c>
       <c r="M10" s="25">
         <v>70</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" ref="N10" si="9">M10/10000*I10*P10</f>
-        <v>8.7452054794520535</v>
+        <v>8.7037808219178068</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" ref="O10" si="10">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
-        <v>233.05774211469083</v>
+        <v>231.95378438888417</v>
       </c>
       <c r="P10" s="20">
         <f>RTD("wdf.rtq",,D10,"LastPrice")</f>
-        <v>3800</v>
+        <v>3782</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>27</v>
@@ -4874,7 +4885,7 @@
       </c>
       <c r="T10" s="26">
         <f t="shared" ref="T10" si="12">O10/P10</f>
-        <v>6.1330984767023901E-2</v>
+        <v>6.1330984767023845E-2</v>
       </c>
       <c r="U10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
@@ -4882,10 +4893,10 @@
       </c>
       <c r="V10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-8.6114269310368172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+        <v>-8.5706359613633367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="24" t="s">
         <v>171</v>
@@ -4898,11 +4909,11 @@
       </c>
       <c r="E11" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" ref="F11" ca="1" si="13">E11+H11</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="G11" s="20">
         <v>14000</v>
@@ -4922,22 +4933,22 @@
       </c>
       <c r="L11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-79.857176563487428</v>
+        <v>-130.83623183381133</v>
       </c>
       <c r="M11" s="25">
         <v>70</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" ref="N11" si="15">M11/10000*I11*P11</f>
-        <v>8.287808219178082</v>
+        <v>8.1842465753424651</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" ref="O11" si="16">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>88.144984782665517</v>
+        <v>139.02047840915378</v>
       </c>
       <c r="P11" s="20">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>14405</v>
+        <v>14225</v>
       </c>
       <c r="Q11" s="19" t="s">
         <v>85</v>
@@ -4951,40 +4962,97 @@
       </c>
       <c r="T11" s="26">
         <f t="shared" ref="T11" si="18">O11/P11</f>
-        <v>6.1190548269812921E-3</v>
+        <v>9.7729686052129196E-3</v>
       </c>
       <c r="U11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.23213284548546653</v>
+        <v>0.33767338413781545</v>
       </c>
       <c r="V11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-12.582057121235266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+        <v>-14.882705878269007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="B12" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43137</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" ref="F12" ca="1" si="19">E12+H12</f>
+        <v>43160</v>
+      </c>
+      <c r="G12" s="20">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" ref="I12" si="20">H12/365</f>
+        <v>6.3013698630136991E-2</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="L12" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-0.12224266198370337</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" ref="N12" si="21">M12/10000*I12*P12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" ref="O12" si="22">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
+        <v>0.12224266198370337</v>
+      </c>
+      <c r="P12" s="20">
+        <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
+        <v>3.11</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" ref="R12" si="23">IF(S12="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="26">
+        <f t="shared" ref="T12" si="24">O12/P12</f>
+        <v>3.9306322181255106E-2</v>
+      </c>
+      <c r="U12" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-0.8190405696985481</v>
+      </c>
+      <c r="V12" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-2.0411583287971435E-3</v>
+      </c>
+      <c r="X12" s="6">
+        <f>V12*10000</f>
+        <v>-20.411583287971435</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -6341,11 +6409,11 @@
       </c>
       <c r="F8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="G8" s="54">
         <f ca="1">F8+I8</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="H8" s="52">
         <v>100</v>
@@ -6409,11 +6477,11 @@
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="G9" s="62">
         <f ca="1">G8</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="H9" s="60">
         <v>100</v>
@@ -6477,11 +6545,11 @@
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="G10" s="70">
         <f ca="1">G9</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="H10" s="68" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -7448,7 +7516,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3967</v>
+        <v>3943</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7465,11 +7533,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -7486,22 +7554,22 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-79.34</v>
+        <v>-78.86</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6084383561643838</v>
+        <v>2.5926575342465754</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>81.948438356164388</v>
+        <v>81.452657534246569</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>2.0657534246575345E-2</v>
+        <v>2.0657534246575342E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
@@ -7551,11 +7619,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43316</v>
+        <v>43317</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9382,18 +9450,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3967</v>
+        <v>3943</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9407,30 +9475,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>234.93625935272894</v>
+        <v>218.20959504757775</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6084383561643838</v>
+        <v>2.5926575342465754</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>237.54469770889332</v>
+        <v>220.80225258182432</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>5.9880185961404923E-2</v>
+        <v>5.5998542374289709E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.70915608084760606</v>
+        <v>0.68455811617695872</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.8909615068139374</v>
+        <v>4.0113233197316731</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -9462,11 +9530,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -9532,11 +9600,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180205.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180205.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="203">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,13 @@
   </si>
   <si>
     <t>510050.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1805</t>
+  </si>
+  <si>
+    <t>rb1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,6 +1564,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1566,35 +1588,11 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1605,11 +1603,20 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1644,30 +1651,42 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14225</v>
+        <v>14290</v>
         <stp/>
         <stp>al1804</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="1"/>
       </tp>
       <tp>
-        <v>3.11</v>
+        <v>3937</v>
+        <stp/>
+        <stp>rb1805</stp>
+        <stp>LastPrice</stp>
+        <tr r="P13" s="1"/>
+        <tr r="P14" s="1"/>
+        <tr r="P18" s="1"/>
+        <tr r="P16" s="1"/>
+        <tr r="P17" s="1"/>
+        <tr r="P15" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0230000000000001</v>
         <stp/>
         <stp>510050.sh</stp>
         <stp>LastPrice</stp>
         <tr r="P12" s="1"/>
       </tp>
       <tp>
-        <v>3943</v>
+        <v>3937</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
       <tp>
-        <v>3782</v>
+        <v>3779</v>
         <stp/>
         <stp>RB1810</stp>
         <stp>LastPrice</stp>
@@ -1966,10 +1985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="C37" sqref="C37:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3407,6 +3426,373 @@
       </c>
       <c r="R36" s="101" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="100"/>
+      <c r="C37" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E38" s="102">
+        <v>43174</v>
+      </c>
+      <c r="F38" s="101">
+        <v>3950</v>
+      </c>
+      <c r="G38" s="101">
+        <v>36</v>
+      </c>
+      <c r="H38" s="101">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I38" s="101">
+        <v>0</v>
+      </c>
+      <c r="J38" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K38" s="101">
+        <v>59.579168704491394</v>
+      </c>
+      <c r="L38" s="101">
+        <v>0</v>
+      </c>
+      <c r="M38" s="101">
+        <v>0</v>
+      </c>
+      <c r="N38" s="153">
+        <v>59.579168704491394</v>
+      </c>
+      <c r="O38" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P38" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="101">
+        <v>1</v>
+      </c>
+      <c r="R38" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E39" s="102">
+        <v>43174</v>
+      </c>
+      <c r="F39" s="101">
+        <v>4000</v>
+      </c>
+      <c r="G39" s="101">
+        <v>36</v>
+      </c>
+      <c r="H39" s="101">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I39" s="101">
+        <v>0</v>
+      </c>
+      <c r="J39" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K39" s="101">
+        <v>38.783205171565214</v>
+      </c>
+      <c r="L39" s="101">
+        <v>0</v>
+      </c>
+      <c r="M39" s="101">
+        <v>0</v>
+      </c>
+      <c r="N39" s="153">
+        <v>38.783205171565214</v>
+      </c>
+      <c r="O39" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P39" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="101">
+        <v>1</v>
+      </c>
+      <c r="R39" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E40" s="102">
+        <v>43174</v>
+      </c>
+      <c r="F40" s="101">
+        <v>4050</v>
+      </c>
+      <c r="G40" s="101">
+        <v>36</v>
+      </c>
+      <c r="H40" s="101">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I40" s="101">
+        <v>0</v>
+      </c>
+      <c r="J40" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K40" s="101">
+        <v>23.837121283288866</v>
+      </c>
+      <c r="L40" s="101">
+        <v>0</v>
+      </c>
+      <c r="M40" s="101">
+        <v>0</v>
+      </c>
+      <c r="N40" s="153">
+        <v>23.837121283288866</v>
+      </c>
+      <c r="O40" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P40" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="101">
+        <v>1</v>
+      </c>
+      <c r="R40" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E41" s="102">
+        <v>43206</v>
+      </c>
+      <c r="F41" s="101">
+        <v>3950</v>
+      </c>
+      <c r="G41" s="101">
+        <v>68</v>
+      </c>
+      <c r="H41" s="101">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="I41" s="101">
+        <v>0</v>
+      </c>
+      <c r="J41" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K41" s="101">
+        <v>87.349253489330295</v>
+      </c>
+      <c r="L41" s="101">
+        <v>0</v>
+      </c>
+      <c r="M41" s="101">
+        <v>0</v>
+      </c>
+      <c r="N41" s="153">
+        <v>87.349253489330295</v>
+      </c>
+      <c r="O41" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P41" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="101">
+        <v>1</v>
+      </c>
+      <c r="R41" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B42" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E42" s="102">
+        <v>43206</v>
+      </c>
+      <c r="F42" s="101">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="101">
+        <v>68</v>
+      </c>
+      <c r="H42" s="101">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="I42" s="101">
+        <v>0</v>
+      </c>
+      <c r="J42" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K42" s="101">
+        <v>65.610758256339295</v>
+      </c>
+      <c r="L42" s="101">
+        <v>0</v>
+      </c>
+      <c r="M42" s="101">
+        <v>0</v>
+      </c>
+      <c r="N42" s="153">
+        <v>65.610758256339295</v>
+      </c>
+      <c r="O42" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P42" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>1</v>
+      </c>
+      <c r="R42" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B43" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="102">
+        <v>43138</v>
+      </c>
+      <c r="E43" s="102">
+        <v>43206</v>
+      </c>
+      <c r="F43" s="101">
+        <v>4050</v>
+      </c>
+      <c r="G43" s="101">
+        <v>68</v>
+      </c>
+      <c r="H43" s="101">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="I43" s="101">
+        <v>0</v>
+      </c>
+      <c r="J43" s="101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K43" s="101">
+        <v>48.043781286849935</v>
+      </c>
+      <c r="L43" s="101">
+        <v>0</v>
+      </c>
+      <c r="M43" s="101">
+        <v>0</v>
+      </c>
+      <c r="N43" s="153">
+        <v>48.043781286849935</v>
+      </c>
+      <c r="O43" s="101">
+        <v>3945</v>
+      </c>
+      <c r="P43" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="101">
+        <v>1</v>
+      </c>
+      <c r="R43" s="101" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3692,75 +4078,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="175"/>
+      <c r="C1" s="179"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="G3" s="172" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="G3" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="L3" s="174" t="s">
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="L3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="Q3" s="172" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="G4" s="173" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="G4" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="L4" s="173" t="s">
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="L4" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="Q4" s="173" t="s">
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="Q4" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="G5" s="169" t="s">
+      <c r="C5" s="166"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
+      <c r="G5" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="169"/>
+      <c r="H5" s="166"/>
       <c r="I5" s="158"/>
       <c r="J5" s="159"/>
       <c r="L5" s="156" t="s">
@@ -3769,360 +4155,360 @@
       <c r="M5" s="157"/>
       <c r="N5" s="158"/>
       <c r="O5" s="159"/>
-      <c r="Q5" s="169" t="s">
+      <c r="Q5" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="169"/>
+      <c r="R5" s="166"/>
       <c r="S5" s="158"/>
       <c r="T5" s="159"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170" t="s">
+      <c r="C6" s="166"/>
+      <c r="D6" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="171"/>
-      <c r="G6" s="169" t="s">
+      <c r="E6" s="168"/>
+      <c r="G6" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
-      <c r="L6" s="169" t="s">
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
+      <c r="L6" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="169"/>
-      <c r="N6" s="170" t="s">
+      <c r="M6" s="166"/>
+      <c r="N6" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="171"/>
-      <c r="Q6" s="169" t="s">
+      <c r="O6" s="168"/>
+      <c r="Q6" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="169"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="171"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="168"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="G7" s="169" t="s">
+      <c r="E7" s="168"/>
+      <c r="G7" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
-      <c r="L7" s="169" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="L7" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170" t="s">
+      <c r="M7" s="166"/>
+      <c r="N7" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="Q7" s="169" t="s">
+      <c r="O7" s="168"/>
+      <c r="Q7" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="169"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="171"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="168"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="C8" s="166"/>
+      <c r="D8" s="167">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="G8" s="169" t="s">
+      <c r="E8" s="168"/>
+      <c r="G8" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="L8" s="169" t="s">
+      <c r="H8" s="166"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
+      <c r="L8" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="169"/>
-      <c r="N8" s="170">
+      <c r="M8" s="166"/>
+      <c r="N8" s="167">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="171"/>
-      <c r="Q8" s="169" t="s">
+      <c r="O8" s="168"/>
+      <c r="Q8" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="169"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="171"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="168"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170" t="s">
+      <c r="C9" s="166"/>
+      <c r="D9" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="G9" s="169" t="s">
+      <c r="E9" s="168"/>
+      <c r="G9" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="L9" s="169" t="s">
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
+      <c r="L9" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="169"/>
-      <c r="N9" s="170" t="s">
+      <c r="M9" s="166"/>
+      <c r="N9" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="171"/>
-      <c r="Q9" s="169" t="s">
+      <c r="O9" s="168"/>
+      <c r="Q9" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="169"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="168"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170">
+      <c r="C10" s="166"/>
+      <c r="D10" s="167">
         <v>43084</v>
       </c>
-      <c r="E10" s="171"/>
+      <c r="E10" s="168"/>
       <c r="G10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="160"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="L10" s="169" t="s">
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
+      <c r="L10" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="169"/>
-      <c r="N10" s="170">
+      <c r="M10" s="166"/>
+      <c r="N10" s="167">
         <v>43084</v>
       </c>
-      <c r="O10" s="171"/>
+      <c r="O10" s="168"/>
       <c r="Q10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="160"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="171"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="168"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170">
+      <c r="C11" s="166"/>
+      <c r="D11" s="167">
         <v>3935</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="G11" s="169" t="s">
+      <c r="E11" s="168"/>
+      <c r="G11" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="L11" s="169" t="s">
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
+      <c r="L11" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170">
+      <c r="M11" s="166"/>
+      <c r="N11" s="167">
         <v>3935</v>
       </c>
-      <c r="O11" s="171"/>
-      <c r="Q11" s="169" t="s">
+      <c r="O11" s="168"/>
+      <c r="Q11" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="169"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="171"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="168"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170">
+      <c r="C12" s="166"/>
+      <c r="D12" s="167">
         <v>3800</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="G12" s="169" t="s">
+      <c r="E12" s="168"/>
+      <c r="G12" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="L12" s="169" t="s">
+      <c r="H12" s="166"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168"/>
+      <c r="L12" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170">
+      <c r="M12" s="166"/>
+      <c r="N12" s="167">
         <v>3800</v>
       </c>
-      <c r="O12" s="171"/>
-      <c r="Q12" s="169" t="s">
+      <c r="O12" s="168"/>
+      <c r="Q12" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="169"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="171"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="168"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170">
+      <c r="C13" s="166"/>
+      <c r="D13" s="167">
         <v>61</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="G13" s="169" t="s">
+      <c r="E13" s="168"/>
+      <c r="G13" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="169"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
-      <c r="L13" s="169" t="s">
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
+      <c r="L13" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="169"/>
-      <c r="N13" s="170">
+      <c r="M13" s="166"/>
+      <c r="N13" s="167">
         <v>3800</v>
       </c>
-      <c r="O13" s="171"/>
-      <c r="Q13" s="169" t="s">
+      <c r="O13" s="168"/>
+      <c r="Q13" s="166" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="171"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="168"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170" t="s">
+      <c r="C14" s="166"/>
+      <c r="D14" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="G14" s="169" t="s">
+      <c r="E14" s="168"/>
+      <c r="G14" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="169"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="161"/>
       <c r="J14" s="162"/>
-      <c r="L14" s="169" t="s">
+      <c r="L14" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="169"/>
-      <c r="N14" s="170">
+      <c r="M14" s="166"/>
+      <c r="N14" s="167">
         <v>61</v>
       </c>
-      <c r="O14" s="171"/>
-      <c r="Q14" s="169" t="s">
+      <c r="O14" s="168"/>
+      <c r="Q14" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="171"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="168"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170">
+      <c r="C15" s="166"/>
+      <c r="D15" s="167">
         <v>5000</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="G15" s="169" t="s">
+      <c r="E15" s="168"/>
+      <c r="G15" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-      <c r="L15" s="169" t="s">
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
+      <c r="L15" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170" t="s">
+      <c r="M15" s="166"/>
+      <c r="N15" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="171"/>
-      <c r="Q15" s="169" t="s">
+      <c r="O15" s="168"/>
+      <c r="Q15" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="169"/>
+      <c r="R15" s="166"/>
       <c r="S15" s="161"/>
       <c r="T15" s="162"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167" t="s">
+      <c r="C16" s="171"/>
+      <c r="D16" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="168"/>
-      <c r="G16" s="166" t="s">
+      <c r="E16" s="173"/>
+      <c r="G16" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
-      <c r="L16" s="169" t="s">
+      <c r="H16" s="171"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="L16" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170">
+      <c r="M16" s="166"/>
+      <c r="N16" s="167">
         <v>5000</v>
       </c>
-      <c r="O16" s="171"/>
-      <c r="Q16" s="169" t="s">
+      <c r="O16" s="168"/>
+      <c r="Q16" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="169"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="171"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="168"/>
     </row>
     <row r="17" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="166" t="s">
+      <c r="L17" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="166"/>
-      <c r="N17" s="167" t="s">
+      <c r="M17" s="171"/>
+      <c r="N17" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="168"/>
-      <c r="Q17" s="166" t="s">
+      <c r="O17" s="173"/>
+      <c r="Q17" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="166"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="168"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="173"/>
     </row>
     <row r="18" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
@@ -4141,327 +4527,247 @@
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="G22" s="173" t="s">
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="G22" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
     </row>
     <row r="23" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="178">
+      <c r="C23" s="166"/>
+      <c r="D23" s="174">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="E23" s="179"/>
+        <v>43138</v>
+      </c>
+      <c r="E23" s="176"/>
       <c r="G23" s="156" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="157"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170" t="s">
+      <c r="C24" s="166"/>
+      <c r="D24" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="G24" s="169" t="s">
+      <c r="E24" s="168"/>
+      <c r="G24" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170" t="s">
+      <c r="C25" s="166"/>
+      <c r="D25" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="G25" s="169" t="s">
+      <c r="E25" s="168"/>
+      <c r="G25" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170">
+      <c r="C26" s="166"/>
+      <c r="D26" s="167">
         <f>D31*D33</f>
         <v>430000</v>
       </c>
-      <c r="E26" s="171"/>
+      <c r="E26" s="168"/>
       <c r="G26" s="160" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="160"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="168"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170" t="s">
+      <c r="C27" s="166"/>
+      <c r="D27" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="G27" s="169" t="s">
+      <c r="E27" s="168"/>
+      <c r="G27" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="178">
+      <c r="C28" s="166"/>
+      <c r="D28" s="174">
         <v>43205</v>
       </c>
-      <c r="E28" s="171"/>
-      <c r="G28" s="169" t="s">
+      <c r="E28" s="168"/>
+      <c r="G28" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="169"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="171"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="168"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170">
+      <c r="C29" s="166"/>
+      <c r="D29" s="167">
         <v>3755</v>
       </c>
-      <c r="E29" s="171"/>
-      <c r="G29" s="169" t="s">
+      <c r="E29" s="168"/>
+      <c r="G29" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="168"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170">
+      <c r="C30" s="166"/>
+      <c r="D30" s="167">
         <v>3650</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="G30" s="169" t="s">
+      <c r="E30" s="168"/>
+      <c r="G30" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="169"/>
+      <c r="H30" s="166"/>
       <c r="I30" s="161"/>
       <c r="J30" s="162"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170">
+      <c r="C31" s="166"/>
+      <c r="D31" s="167">
         <v>43</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="G31" s="169" t="s">
+      <c r="E31" s="168"/>
+      <c r="G31" s="166" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="168"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170" t="s">
+      <c r="C32" s="166"/>
+      <c r="D32" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="G32" s="169" t="s">
+      <c r="E32" s="168"/>
+      <c r="G32" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="168"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170">
+      <c r="C33" s="166"/>
+      <c r="D33" s="167">
         <v>10000</v>
       </c>
-      <c r="E33" s="171"/>
-      <c r="G33" s="169" t="s">
+      <c r="E33" s="168"/>
+      <c r="G33" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168"/>
     </row>
     <row r="34" spans="2:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="166" t="s">
+      <c r="B34" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167" t="s">
+      <c r="C34" s="171"/>
+      <c r="D34" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="168"/>
-      <c r="G34" s="169" t="s">
+      <c r="E34" s="173"/>
+      <c r="G34" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="169"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
     </row>
     <row r="35" spans="2:10" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="166" t="s">
+      <c r="G35" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="166"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="168"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
     </row>
     <row r="36" spans="2:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4486,29 +4792,109 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4521,8 +4907,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="C13:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4681,12 +5067,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E12" ca="1" si="0">TODAY()</f>
-        <v>43137</v>
+        <f t="shared" ref="E8:E18" ca="1" si="0">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4706,7 +5092,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-215.99747648445737</v>
+        <v>-211.93284983324884</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -4715,11 +5101,11 @@
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>215.99747648445737</v>
+        <v>211.93284983324884</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3943</v>
+        <v>3937</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4733,15 +5119,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>5.4779983891569205E-2</v>
+        <v>5.3831051519748242E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.68059928319144092</v>
+        <v>-0.67426599434838863</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.0263669471698904</v>
+        <v>-4.0534098113107575</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4757,11 +5143,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43169</v>
+        <v>43170</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4831,15 +5217,15 @@
       </c>
       <c r="E10" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" ref="F10" ca="1" si="7">E10+H10</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="G10" s="20">
         <f>P10</f>
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="H10" s="19">
         <v>120</v>
@@ -4856,22 +5242,22 @@
       </c>
       <c r="L10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-223.25000356696637</v>
+        <v>-223.07291472225461</v>
       </c>
       <c r="M10" s="25">
         <v>70</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" ref="N10" si="9">M10/10000*I10*P10</f>
-        <v>8.7037808219178068</v>
+        <v>8.6968767123287662</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" ref="O10" si="10">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
-        <v>231.95378438888417</v>
+        <v>231.76979143458337</v>
       </c>
       <c r="P10" s="20">
         <f>RTD("wdf.rtq",,D10,"LastPrice")</f>
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>27</v>
@@ -4885,15 +5271,15 @@
       </c>
       <c r="T10" s="26">
         <f t="shared" ref="T10" si="12">O10/P10</f>
-        <v>6.1330984767023845E-2</v>
+        <v>6.1330984767023915E-2</v>
       </c>
       <c r="U10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-0.52623792136046177</v>
+        <v>-0.52623792137183045</v>
       </c>
       <c r="V10" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-8.5706359613633367</v>
+        <v>-8.5638374664180219</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4909,11 +5295,11 @@
       </c>
       <c r="E11" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" ref="F11" ca="1" si="13">E11+H11</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="G11" s="20">
         <v>14000</v>
@@ -4933,22 +5319,22 @@
       </c>
       <c r="L11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-130.83623183381133</v>
+        <v>-110.21371164768516</v>
       </c>
       <c r="M11" s="25">
         <v>70</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" ref="N11" si="15">M11/10000*I11*P11</f>
-        <v>8.1842465753424651</v>
+        <v>8.2216438356164367</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" ref="O11" si="16">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>139.02047840915378</v>
+        <v>118.43535548330159</v>
       </c>
       <c r="P11" s="20">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>14225</v>
+        <v>14290</v>
       </c>
       <c r="Q11" s="19" t="s">
         <v>85</v>
@@ -4962,18 +5348,18 @@
       </c>
       <c r="T11" s="26">
         <f t="shared" ref="T11" si="18">O11/P11</f>
-        <v>9.7729686052129196E-3</v>
+        <v>8.2879884872849256E-3</v>
       </c>
       <c r="U11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.33767338413781545</v>
+        <v>0.29725896465606638</v>
       </c>
       <c r="V11" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-14.882705878269007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+        <v>-14.163674893623693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="24" t="s">
         <v>171</v>
@@ -4986,11 +5372,11 @@
       </c>
       <c r="E12" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" ref="F12" ca="1" si="19">E12+H12</f>
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="G12" s="20">
         <v>3</v>
@@ -5010,7 +5396,7 @@
       </c>
       <c r="L12" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.12224266198370337</v>
+        <v>-6.0543690879017786E-2</v>
       </c>
       <c r="M12" s="25">
         <v>0</v>
@@ -5021,11 +5407,11 @@
       </c>
       <c r="O12" s="24">
         <f t="shared" ref="O12" si="22">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>0.12224266198370337</v>
+        <v>6.0543690879017786E-2</v>
       </c>
       <c r="P12" s="20">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>3.11</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>39</v>
@@ -5039,166 +5425,508 @@
       </c>
       <c r="T12" s="26">
         <f t="shared" ref="T12" si="24">O12/P12</f>
-        <v>3.9306322181255106E-2</v>
+        <v>2.0027684710227516E-2</v>
       </c>
       <c r="U12" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.8190405696985481</v>
+        <v>-0.58241416764548415</v>
       </c>
       <c r="V12" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-2.0411583287971435E-3</v>
+        <v>-2.9572628794097833E-3</v>
       </c>
       <c r="X12" s="6">
         <f>V12*10000</f>
-        <v>-20.411583287971435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+        <v>-29.572628794097831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B13" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" ref="F13" ca="1" si="25">E13+H13</f>
+        <v>43174</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3950</v>
+      </c>
+      <c r="H13" s="19">
+        <v>36</v>
+      </c>
+      <c r="I13" s="22">
+        <f>(H13-7)/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L13" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>55.706810201548933</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" ref="N13" si="26">M13/10000*I13*P13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" ref="O13" si="27">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
+        <v>55.706810201548933</v>
+      </c>
+      <c r="P13" s="20">
+        <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" ref="R13" si="28">IF(S13="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T13" s="26">
+        <f t="shared" ref="T13" si="29">O13/P13</f>
+        <v>1.414955809030961E-2</v>
+      </c>
+      <c r="U13" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>0.47380869209519005</v>
+      </c>
+      <c r="V13" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>4.411090569464136</v>
+      </c>
+      <c r="X13" s="6">
+        <f>V13*10000</f>
+        <v>44110.905694641362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B14" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" ref="F14:F15" ca="1" si="30">E14+H14</f>
+        <v>43174</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="19">
+        <v>36</v>
+      </c>
+      <c r="I14" s="22">
+        <f>(H14-7)/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>35.902801646446051</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" ref="N14:N15" si="31">M14/10000*I14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" ref="O14:O15" si="32">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>35.902801646446051</v>
+      </c>
+      <c r="P14" s="20">
+        <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" ref="R14:R15" si="33">IF(S14="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="26">
+        <f t="shared" ref="T14:T15" si="34">O14/P14</f>
+        <v>9.1193298568570114E-3</v>
+      </c>
+      <c r="U14" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>0.35046488350189975</v>
+      </c>
+      <c r="V14" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>4.1066436968050084</v>
+      </c>
+      <c r="X14" s="6">
+        <f>V14*10000</f>
+        <v>41066.436968050082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" ca="1" si="30"/>
+        <v>43174</v>
+      </c>
+      <c r="G15" s="20">
+        <v>4050</v>
+      </c>
+      <c r="H15" s="19">
+        <v>36</v>
+      </c>
+      <c r="I15" s="22">
+        <f>(H15-7)/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L15" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>21.832841016435054</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="32"/>
+        <v>21.832841016435054</v>
+      </c>
+      <c r="P15" s="20">
+        <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="26">
+        <f t="shared" si="34"/>
+        <v>5.5455527092799226E-3</v>
+      </c>
+      <c r="U15" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>0.24240387837153321</v>
+      </c>
+      <c r="V15" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>3.4622911012745021</v>
+      </c>
+      <c r="X15" s="6">
+        <f>V15*10000</f>
+        <v>34622.911012745019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B16" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F18" ca="1" si="35">E16+H16</f>
+        <v>43206</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3950</v>
+      </c>
+      <c r="H16" s="19">
+        <v>68</v>
+      </c>
+      <c r="I16" s="22">
+        <f>(H16-7)/365</f>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L16" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>83.398359663366818</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" ref="N16:N18" si="36">M16/10000*I16*P16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" ref="O16:O18" si="37">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>83.398359663366818</v>
+      </c>
+      <c r="P16" s="20">
+        <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" ref="R16:R18" si="38">IF(S16="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" ref="T16:T18" si="39">O16/P16</f>
+        <v>2.1183225720946615E-2</v>
+      </c>
+      <c r="U16" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>0.48680938499501281</v>
+      </c>
+      <c r="V16" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>6.3966995962558713</v>
+      </c>
+      <c r="X16" s="6">
+        <f>V16*10000</f>
+        <v>63966.995962558714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B17" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" ca="1" si="35"/>
+        <v>43206</v>
+      </c>
+      <c r="G17" s="20">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="19">
+        <v>68</v>
+      </c>
+      <c r="I17" s="22">
+        <f>(H17-7)/365</f>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>62.352446617443775</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" si="37"/>
+        <v>62.352446617443775</v>
+      </c>
+      <c r="P17" s="20">
+        <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="26">
+        <f t="shared" si="39"/>
+        <v>1.5837553115936952E-2</v>
+      </c>
+      <c r="U17" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>0.40043079750375909</v>
+      </c>
+      <c r="V17" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>6.2032694838964062</v>
+      </c>
+      <c r="X17" s="6">
+        <f>V17*10000</f>
+        <v>62032.69483896406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B18" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43138</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" ca="1" si="35"/>
+        <v>43206</v>
+      </c>
+      <c r="G18" s="20">
+        <v>4050</v>
+      </c>
+      <c r="H18" s="19">
+        <v>68</v>
+      </c>
+      <c r="I18" s="22">
+        <f>(H18-7)/365</f>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L18" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>45.436051538755237</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="37"/>
+        <v>45.436051538755237</v>
+      </c>
+      <c r="P18" s="20">
+        <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
+        <v>3937</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="26">
+        <f t="shared" si="39"/>
+        <v>1.1540780172404175E-2</v>
+      </c>
+      <c r="U18" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>0.31960347221229313</v>
+      </c>
+      <c r="V18" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>5.7381834653095893</v>
+      </c>
+      <c r="X18" s="6">
+        <f>V18*10000</f>
+        <v>57381.834653095895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
@@ -5222,7 +5950,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
       <c r="B20" s="13"/>
       <c r="C20" s="10"/>
@@ -5246,7 +5974,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
@@ -5270,7 +5998,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
@@ -5294,7 +6022,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
@@ -5318,7 +6046,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
@@ -5342,7 +6070,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
@@ -5366,7 +6094,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
       <c r="B26" s="13"/>
       <c r="C26" s="10"/>
@@ -5390,7 +6118,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
@@ -5414,7 +6142,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="103"/>
       <c r="C28" s="104"/>
@@ -5438,7 +6166,7 @@
       <c r="U28" s="103"/>
       <c r="V28" s="103"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="103"/>
       <c r="C29" s="104"/>
@@ -5462,7 +6190,7 @@
       <c r="U29" s="103"/>
       <c r="V29" s="103"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
@@ -5486,7 +6214,7 @@
       <c r="U30" s="103"/>
       <c r="V30" s="103"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
@@ -5510,7 +6238,7 @@
       <c r="U31" s="103"/>
       <c r="V31" s="103"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
@@ -6409,11 +7137,11 @@
       </c>
       <c r="F8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="G8" s="54">
         <f ca="1">F8+I8</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="H8" s="52">
         <v>100</v>
@@ -6477,11 +7205,11 @@
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="G9" s="62">
         <f ca="1">G8</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="H9" s="60">
         <v>100</v>
@@ -6545,11 +7273,11 @@
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="G10" s="70">
         <f ca="1">G9</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="H10" s="68" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -7516,7 +8244,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3943</v>
+        <v>3937</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7533,11 +8261,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -7554,18 +8282,18 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-78.86</v>
+        <v>-78.739999999999995</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.5926575342465754</v>
+        <v>2.5887123287671234</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>81.452657534246569</v>
+        <v>81.328712328767125</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
@@ -7619,11 +8347,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43317</v>
+        <v>43318</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9450,18 +10178,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3943</v>
+        <v>3937</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9475,30 +10203,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>218.20959504757775</v>
+        <v>214.12114566842683</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5926575342465754</v>
+        <v>2.5887123287671234</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>220.80225258182432</v>
+        <v>216.70985799719395</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>5.5998542374289709E-2</v>
+        <v>5.5044414020115305E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.68455811617695872</v>
+        <v>0.67824793018189666</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.0113233197316731</v>
+        <v>4.0389489810856958</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -9530,11 +10258,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -9600,11 +10328,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
